--- a/weight_lift/20241223094620.xlsx
+++ b/weight_lift/20241223094620.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximmaximov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\классика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6153F75-3087-E44F-89E6-4C3F44E6FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1040" windowWidth="27240" windowHeight="16360" xr2:uid="{F0A859BE-38ED-D343-A48E-746ABA4D23BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="20241223094620" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_20241223094620" localSheetId="0">Лист1!$A$1:$U$212</definedName>
-  </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{95916F83-9105-484E-8F80-650D6E5EDC3B}" name="20241223094620" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10007" sourceFile="/Users/maximmaximov/Desktop/20241223094620.txt" decimal="," thousands=" ">
-      <textFields count="21">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,22 +36,22 @@
     <t>AccZ(g)</t>
   </si>
   <si>
-    <t>AsX(¬∞/s)</t>
-  </si>
-  <si>
-    <t>AsY(¬∞/s)</t>
-  </si>
-  <si>
-    <t>AsZ(¬∞/s)</t>
-  </si>
-  <si>
-    <t>AngleX(¬∞)</t>
-  </si>
-  <si>
-    <t>AngleY(¬∞)</t>
-  </si>
-  <si>
-    <t>AngleZ(¬∞)</t>
+    <t>AsX(°/s)</t>
+  </si>
+  <si>
+    <t>AsY(°/s)</t>
+  </si>
+  <si>
+    <t>AsZ(°/s)</t>
+  </si>
+  <si>
+    <t>AngleX(°)</t>
+  </si>
+  <si>
+    <t>AngleY(°)</t>
+  </si>
+  <si>
+    <t>AngleZ(°)</t>
   </si>
   <si>
     <t>HX(uT)</t>
@@ -125,7 +75,7 @@
     <t>Q3()</t>
   </si>
   <si>
-    <t>Temperature(¬∞C)</t>
+    <t>Temperature(°C)</t>
   </si>
   <si>
     <t>Version()</t>
@@ -140,7 +90,7 @@
     <t>WT901BLE67(C3:46:8C:7D:9E:3D)</t>
   </si>
   <si>
-    <t>10080,1,13</t>
+    <t>10080.1.13</t>
   </si>
   <si>
     <t>2024-12-23 9:46:20:378</t>
@@ -776,26 +726,343 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -803,15 +1070,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -824,10 +1280,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="20241223094620" connectionId="1" xr16:uid="{95BE190B-151C-194F-9D93-0442ECCAD02B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,7 +1299,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -859,7 +1311,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -906,23 +1358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -958,23 +1393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1126,30 +1544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9998C8-B09F-2543-8A2E-8D57AF8E4084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1604,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1734,7 +2136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +2201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +2331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +2396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2059,7 +2461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2384,7 +2786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2514,7 +2916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2579,7 +2981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +3046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +3111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2774,7 +3176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2839,7 +3241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2904,7 +3306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2969,7 +3371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3034,7 +3436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3099,7 +3501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3164,7 +3566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3229,7 +3631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3294,7 +3696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -3359,7 +3761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -3424,7 +3826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3489,7 +3891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3554,7 +3956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3619,7 +4021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3684,7 +4086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3749,7 +4151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3814,7 +4216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3879,7 +4281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3944,7 +4346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -4009,7 +4411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4074,7 +4476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -4139,7 +4541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -4204,7 +4606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -4269,7 +4671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -4334,7 +4736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -4399,7 +4801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -4464,7 +4866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -4529,7 +4931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4594,7 +4996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4659,7 +5061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4724,7 +5126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4789,7 +5191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -4854,7 +5256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -4919,7 +5321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -4984,7 +5386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -5049,7 +5451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -5114,7 +5516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -5179,7 +5581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -5244,7 +5646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -5309,7 +5711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -5374,7 +5776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -5439,7 +5841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -5504,7 +5906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -5569,7 +5971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -5634,7 +6036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -5699,7 +6101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -5764,7 +6166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -5829,7 +6231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -5894,7 +6296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -5959,7 +6361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -6024,7 +6426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -6089,7 +6491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -6154,7 +6556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -6219,7 +6621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -6284,7 +6686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -6349,7 +6751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -6414,7 +6816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -6479,7 +6881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -6544,7 +6946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -6609,7 +7011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -6674,7 +7076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -6739,7 +7141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -6804,7 +7206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -6869,7 +7271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -6934,7 +7336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -6999,7 +7401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -7064,7 +7466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -7129,7 +7531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -7194,7 +7596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -7259,7 +7661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -7324,7 +7726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -7389,7 +7791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -7454,7 +7856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -7519,7 +7921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -7584,7 +7986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -7649,7 +8051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -7714,7 +8116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -7779,7 +8181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -7844,7 +8246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -7909,7 +8311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -7974,7 +8376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -8039,7 +8441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -8104,7 +8506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -8169,7 +8571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -8234,7 +8636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -8299,7 +8701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -8364,7 +8766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -8429,7 +8831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -8494,7 +8896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -8559,7 +8961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -8624,7 +9026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -8689,7 +9091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -8754,7 +9156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>139</v>
       </c>
@@ -8819,7 +9221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -8884,7 +9286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -8949,7 +9351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -9014,7 +9416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -9079,7 +9481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -9144,7 +9546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -9209,7 +9611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -9274,7 +9676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -9339,7 +9741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -9404,7 +9806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -9469,7 +9871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -9534,7 +9936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -9599,7 +10001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -9664,7 +10066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>153</v>
       </c>
@@ -9729,7 +10131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -9794,7 +10196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -9859,7 +10261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -9924,7 +10326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -9989,7 +10391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>158</v>
       </c>
@@ -10054,7 +10456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -10119,7 +10521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -10184,7 +10586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -10249,7 +10651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -10314,7 +10716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>163</v>
       </c>
@@ -10379,7 +10781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -10444,7 +10846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -10509,7 +10911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>166</v>
       </c>
@@ -10574,7 +10976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -10639,7 +11041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -10704,7 +11106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>169</v>
       </c>
@@ -10769,7 +11171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>170</v>
       </c>
@@ -10834,7 +11236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -10899,7 +11301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -10964,7 +11366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -11029,7 +11431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -11094,7 +11496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>175</v>
       </c>
@@ -11159,7 +11561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>176</v>
       </c>
@@ -11224,7 +11626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -11289,7 +11691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -11354,7 +11756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -11419,7 +11821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -11484,7 +11886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -11549,7 +11951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -11614,7 +12016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -11679,7 +12081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -11744,7 +12146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -11809,7 +12211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -11874,7 +12276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -11939,7 +12341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -12004,7 +12406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>189</v>
       </c>
@@ -12069,7 +12471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -12134,7 +12536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -12199,7 +12601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -12264,7 +12666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>193</v>
       </c>
@@ -12329,7 +12731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>194</v>
       </c>
@@ -12394,7 +12796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -12459,7 +12861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -12524,7 +12926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>197</v>
       </c>
@@ -12589,7 +12991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -12654,7 +13056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -12719,7 +13121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -12784,7 +13186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -12849,7 +13251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>202</v>
       </c>
@@ -12914,7 +13316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>203</v>
       </c>
@@ -12979,7 +13381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -13044,7 +13446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -13109,7 +13511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -13174,7 +13576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -13239,7 +13641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -13304,7 +13706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -13369,7 +13771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>210</v>
       </c>
@@ -13434,7 +13836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -13499,7 +13901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -13564,7 +13966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -13629,7 +14031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -13694,7 +14096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -13759,7 +14161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -13824,7 +14226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -13889,7 +14291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -13954,7 +14356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -14019,7 +14421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -14084,7 +14486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -14149,7 +14551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -14214,7 +14616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -14279,7 +14681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -14344,7 +14746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -14409,7 +14811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -14474,7 +14876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -14539,7 +14941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -14604,7 +15006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -14669,7 +15071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -14734,7 +15136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -14799,7 +15201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -14864,7 +15266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>233</v>
       </c>
